--- a/resources/template_for_client.xlsx
+++ b/resources/template_for_client.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wolfkain/Projects/360/Apps/dualpresenter/dualpresenter/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748F1C52-20F4-624B-A487-723CFC2435E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA8546F-C613-174D-92D2-13C40CE5135B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34140" windowHeight="27300" xr2:uid="{31235C52-23CF-6F4B-906D-2BCD49615FB2}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,20 +93,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -150,28 +150,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="28">
     <dxf>
       <font>
         <b val="0"/>
@@ -180,7 +179,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
@@ -193,7 +192,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
@@ -209,7 +208,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -226,7 +225,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -243,7 +242,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -260,7 +259,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
@@ -278,6 +277,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -397,202 +406,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC5CBF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCAD2D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF6E684F"/>
-          <bgColor rgb="FFF1F2DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF6E684F"/>
-          <bgColor rgb="FFF1F2DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5CBF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCAD2D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF6E684F"/>
-          <bgColor rgb="FFF1F2DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF6E684F"/>
-          <bgColor rgb="FFF1F2DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5CBF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCAD2D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF6E684F"/>
-          <bgColor rgb="FFF1F2DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF6E684F"/>
-          <bgColor rgb="FFF1F2DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5CBF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -682,15 +495,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleLight8 2" pivot="0" count="9" xr9:uid="{80D2B743-4329-6544-8889-4B0B004A6420}">
-      <tableStyleElement type="wholeTable" dxfId="45"/>
-      <tableStyleElement type="headerRow" dxfId="44"/>
-      <tableStyleElement type="totalRow" dxfId="43"/>
-      <tableStyleElement type="firstColumn" dxfId="42"/>
-      <tableStyleElement type="lastColumn" dxfId="41"/>
-      <tableStyleElement type="firstRowStripe" dxfId="40"/>
-      <tableStyleElement type="secondRowStripe" dxfId="39"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="38"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="37"/>
+      <tableStyleElement type="wholeTable" dxfId="27"/>
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="totalRow" dxfId="25"/>
+      <tableStyleElement type="firstColumn" dxfId="24"/>
+      <tableStyleElement type="lastColumn" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="secondRowStripe" dxfId="21"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="19"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1057,7 +870,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="52.83203125" customWidth="1"/>
@@ -1066,7 +879,7 @@
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1083,34 +896,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1118,70 +931,50 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="expression" dxfId="18" priority="7" stopIfTrue="1">
+      <formula>$B3="Category"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="8">
+      <formula>$B3="Image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="9">
+      <formula>$B3="Unattended"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="10">
+      <formula>$B3="Names"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="11">
+      <formula>$B3="Title"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="12">
+      <formula>$B3="Blank"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
+      <formula>$B2="Category"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>$B2="Image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>$B2="Unattended"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>$B2="Names"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="5">
+      <formula>$B2="Title"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="6">
+      <formula>$B2="Blank"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="36" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="25" operator="equal">
       <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="23" priority="13" stopIfTrue="1">
-      <formula>$B2="Category"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="14">
-      <formula>$B2="Image"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="15">
-      <formula>$B2="Unattended"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
-      <formula>$B2="Names"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="17">
-      <formula>$B2="Title"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
-      <formula>$B2="Blank"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
-      <formula>$B3="Category"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8">
-      <formula>$B3="Image"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9">
-      <formula>$B3="Unattended"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>$B3="Names"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
-      <formula>$B3="Title"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>$B3="Blank"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
-      <formula>$B3="Category"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
-      <formula>$B3="Image"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
-      <formula>$B3="Unattended"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>$B3="Names"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>$B3="Title"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>$B3="Blank"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
